--- a/database/data_to_add/added/2020-6-22/Tester_1932_tbl1.xlsx
+++ b/database/data_to_add/added/2020-6-22/Tester_1932_tbl1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Project\Extracted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Documents\GitHub\Freshwater-Fish-Diet-Database\database\data_to_add\added\2020-6-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7C9B8E-E222-45D1-9517-363B659D4F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40E1AEC-9395-409F-AFCB-8AE9A722D5D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
   <si>
     <t>site_name</t>
   </si>
@@ -172,15 +174,6 @@
   </si>
   <si>
     <t>Plant  material-Algae,  etc</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>21.4</t>
   </si>
   <si>
     <t>tbl 1</t>
@@ -273,12 +266,12 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X7"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AW8" sqref="AW8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +669,7 @@
       <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
@@ -717,226 +710,232 @@
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="K2" s="4">
+        <v>27</v>
+      </c>
+      <c r="L2" s="5">
+        <v>10594</v>
+      </c>
+      <c r="M2" s="5">
+        <v>11689</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="4">
+        <v>1932</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="5">
-        <v>27</v>
-      </c>
-      <c r="L2" s="6">
-        <v>10594</v>
-      </c>
-      <c r="M2" s="6">
-        <v>11689</v>
-      </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" s="5">
-        <v>1932</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="3">
+      <c r="AD2" s="2">
         <v>66.8</v>
       </c>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="3">
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="2">
         <v>2.1</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AH2" s="2">
         <v>0.1</v>
       </c>
-      <c r="AI2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ2" s="5">
+      <c r="AI2" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="AJ2" s="4">
         <v>0.7</v>
       </c>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5">
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4">
         <v>21.8</v>
       </c>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="3">
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="K3" s="4">
+        <v>24</v>
+      </c>
+      <c r="L3" s="5">
+        <v>10594</v>
+      </c>
+      <c r="M3" s="5">
+        <v>11689</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="4">
+        <v>1932</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="5">
-        <v>24</v>
-      </c>
-      <c r="L3" s="6">
-        <v>10594</v>
-      </c>
-      <c r="M3" s="6">
-        <v>11689</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="5">
-        <v>1932</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="5">
-        <v>2</v>
-      </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="3">
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AE3" s="2">
         <v>22.2</v>
       </c>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="3">
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="2">
         <v>0.6</v>
       </c>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="3">
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="2">
         <v>13.8</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AP3" s="2">
         <v>35.200000000000003</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AQ3" s="2">
         <v>7.6</v>
       </c>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AV3" s="4"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -944,114 +943,116 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>63</v>
+      <c r="H4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="K4">
         <v>13</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>10594</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>11689</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="5" t="s">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="5">
+      <c r="Q4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="4">
         <v>1932</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="5">
+      <c r="T4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" s="4">
         <v>3</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="3">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="2">
         <v>21.5</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="3">
+      <c r="AB4" s="7">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="2">
         <v>6.1</v>
       </c>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="3">
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="2">
         <v>1.8</v>
       </c>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP4" s="3">
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="7">
+        <v>21.4</v>
+      </c>
+      <c r="AP4" s="2">
         <v>13.9</v>
       </c>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="3">
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="2">
         <v>1.4</v>
       </c>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="3">
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AU4" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="AV4" s="3">
+      <c r="AU4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="AV4" s="2">
         <v>2.9</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1059,116 +1060,110 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>63</v>
+      <c r="H5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="K5">
         <v>12</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>10594</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>11689</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" s="5" t="s">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="5">
+      <c r="Q5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="4">
         <v>1932</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" s="5" t="s">
+      <c r="S5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="W5" s="5">
+      <c r="T5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" s="4">
         <v>4</v>
       </c>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="3">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="2">
         <v>15.7</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="4">
         <v>32.299999999999997</v>
       </c>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="3">
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="2">
         <v>3.9</v>
       </c>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="AJ5" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AK5" s="5">
-        <v>6.4</v>
-      </c>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5">
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4">
         <v>11.4</v>
       </c>
-      <c r="AP5" s="3">
+      <c r="AP5" s="2">
         <v>12.2</v>
       </c>
-      <c r="AQ5" s="3">
+      <c r="AQ5" s="2">
         <v>11.4</v>
       </c>
-      <c r="AR5" s="3">
+      <c r="AR5" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AS5" s="3">
+      <c r="AS5" s="2">
         <v>0.9</v>
       </c>
-      <c r="AT5" s="3">
+      <c r="AT5" s="2">
         <v>1.7</v>
       </c>
-      <c r="AU5" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="AV5" s="3"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1176,112 +1171,110 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>63</v>
+      <c r="H6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="K6">
         <v>6</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>10594</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>11689</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="5" t="s">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="5">
+      <c r="Q6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="4">
         <v>1932</v>
       </c>
-      <c r="S6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U6" s="5" t="s">
+      <c r="S6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="W6" s="5">
+      <c r="T6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" s="4">
         <v>5</v>
       </c>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="3">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="2">
         <v>16.7</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="2">
         <v>16.7</v>
       </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4">
         <v>40.799999999999997</v>
       </c>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="3">
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="2">
         <v>0.3</v>
       </c>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="4">
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="3">
         <v>15</v>
       </c>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5">
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4">
         <v>0.1</v>
       </c>
-      <c r="AO6" s="5">
+      <c r="AO6" s="4">
         <v>6.2</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AP6" s="2">
         <v>1.3</v>
       </c>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3">
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2">
         <v>1.2</v>
       </c>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3">
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2">
         <v>1.7</v>
       </c>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1289,87 +1282,87 @@
       <c r="F7">
         <v>8</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>63</v>
+      <c r="H7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>10594</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>11689</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q7" s="5" t="s">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="5">
+      <c r="Q7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="4">
         <v>1932</v>
       </c>
-      <c r="S7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U7" s="5" t="s">
+      <c r="S7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="W7" s="5">
+      <c r="T7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W7" s="4">
         <v>6</v>
       </c>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="3">
+      <c r="X7" s="4"/>
+      <c r="Y7" s="2">
         <v>41.6</v>
       </c>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5">
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4">
         <v>4.2</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AC7" s="3">
         <v>45</v>
       </c>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="3">
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="2">
         <v>4.2</v>
       </c>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="3">
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="2">
         <v>1.7</v>
       </c>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5">
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4">
         <v>3.3</v>
       </c>
     </row>
